--- a/biology/Histoire de la zoologie et de la botanique/Ad_Konings/Ad_Konings.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ad_Konings/Ad_Konings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ad Konings (nom complet : Adrianus Johannes Franciscus Marinus Maria Konings)[1], né le 11 janvier 1956 à Rosendael (Pays-Bas), est un ichthyologiste néerlandais d'abord formé en médecine et en biologie. Konings est surtout connu pour ses recherches sur les cichlidés des lacs du Rift africain. Après des études à Amsterdam, il a passé une partie de sa vie à Rotterdam, puis aux États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ad Konings (nom complet : Adrianus Johannes Franciscus Marinus Maria Konings), né le 11 janvier 1956 à Rosendael (Pays-Bas), est un ichthyologiste néerlandais d'abord formé en médecine et en biologie. Konings est surtout connu pour ses recherches sur les cichlidés des lacs du Rift africain. Après des études à Amsterdam, il a passé une partie de sa vie à Rotterdam, puis aux États-Unis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ad Konings a commencé à maintenir des cichlidés quand il avait 14 ans en 1970. Il a rapidement obtenu des reproductions de cichlidés rares, et a travaillé comme assistant pour le plus grand vendeur de poissons tropicaux aux Pays-Bas.
 </t>
@@ -544,12 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Années 1974-1980
-Entre les années 1974 et 1980 Ad Konings étudie la biologie médicale à l'Université d'Amsterdam et obtient son doctorat en 1980. Il a choisi ce domaine en dépit de son amour de l'ichtyologie et en raison d'une crainte que les débouchés soient trop restreints.
-De 1980 à 1986
-De 1980 à 1986, il a fait des recherches sur les enzymes lysosomales à l'Université Erasmus de Rotterdam. La plupart de ses travaux était liée ADN (biologie moléculaire).
-En 1986
-En 1986, Konings a déménagé à Sankt Leon-Rot, en Allemagne (près de Heidelberg), où il a commencé à écrire des livres et à reproduire des cichlidés du lac Tanganyika. Il a également travaillé pendant 18 mois dans le département de parasitologie de l'Université de Heidelberg.
+          <t>Années 1974-1980</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre les années 1974 et 1980 Ad Konings étudie la biologie médicale à l'Université d'Amsterdam et obtient son doctorat en 1980. Il a choisi ce domaine en dépit de son amour de l'ichtyologie et en raison d'une crainte que les débouchés soient trop restreints.
 </t>
         </is>
       </c>
@@ -575,10 +590,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Études universitaires et début de carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>De 1980 à 1986</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1980 à 1986, il a fait des recherches sur les enzymes lysosomales à l'Université Erasmus de Rotterdam. La plupart de ses travaux était liée ADN (biologie moléculaire).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ad_Konings</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad_Konings</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Études universitaires et début de carrière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En 1986</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1986, Konings a déménagé à Sankt Leon-Rot, en Allemagne (près de Heidelberg), où il a commencé à écrire des livres et à reproduire des cichlidés du lac Tanganyika. Il a également travaillé pendant 18 mois dans le département de parasitologie de l'Université de Heidelberg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ad_Konings</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad_Konings</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Éditeur et photographe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Konings et sa future épouse ont commencé leur propre maison d'édition, Cichlid Press, en 1991. 
 Le premier livre a été intitulé le Cichlids Yearbook, vol. 1. L'entreprise a grandi et publie maintenant un certain nombre de guides de cichlidés par Konings et d'autres auteurs; ses publications sont souvent considérés comme les ouvrages de référence sur diverses catégories de cichlidés africains. On dénombre 36 livres ou publications différentes sous son nom.
@@ -588,37 +679,39 @@
 Lorsque sa vue a diminué, à la fin de sa vie, elle lui a demandé d'accepter son microscope binoculaire, comme le don d'un expert en cichlidés africains de premier plan, à l'homme qui lui a succédé pour décrire une multitude de nouvelles espèces de cichlides.
 Konings a également été initié par le découvreur de cichlidés et exportateur Stuart Grant tôt dans sa carrière, et quand Konings épouse Gertrud (née Dudin), également biologiste, en 1996 au Malawi Grant et sa femme Esther étaient leurs témoins de mariage.
 Konings déménage à El Paso, au Texas, en 1996, et emmène Cichlid Press et sa famille. 
-Dans des entrevues, il donne la douceur du climat et la beauté des paysages comme raisons à ce déménagement. Les Konings ont repris l'étude des cactus depuis, photographiant chaque espèce et variété de cactus originaire du Texas[2].
+Dans des entrevues, il donne la douceur du climat et la beauté des paysages comme raisons à ce déménagement. Les Konings ont repris l'étude des cactus depuis, photographiant chaque espèce et variété de cactus originaire du Texas.
 Il dirige occasionnellement des expéditions au lac Malawi et donne de nombreuses conférences dans le monde entier.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ad_Konings</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ad_Konings</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Malawi Cichlids in Their Natural Habitat par Ad Konings; Cichlid Press; 3e édition (juillet 2001);  (ISBN 0-9668255-3-5);  (ISBN 978-0-9668255-3-4)
 Enjoying Cichlids, par Kjell Fohrman, Mary Bailey, Ad Konings; Cichlid Press (novembre 2002);  (ISBN 0-9668255-7-8);  (ISBN 978-0-9668255-7-2)
